--- a/Table/Table_xls/q切磋掉落配置表.xlsx
+++ b/Table/Table_xls/q切磋掉落配置表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5500E8-AA40-42CD-99A7-882FBCDC8AA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="585" windowWidth="14805" windowHeight="7530"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,12 +17,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="A7" authorId="0" shapeId="0">
+    <comment ref="A7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A25" authorId="0" shapeId="0">
+    <comment ref="A25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -75,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A68" authorId="0" shapeId="0">
+    <comment ref="A68" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -107,7 +108,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A69" authorId="0" shapeId="0">
+    <comment ref="A69" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A75" authorId="0" shapeId="0">
+    <comment ref="A75" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -161,7 +162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A76" authorId="0" shapeId="0">
+    <comment ref="A76" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A78" authorId="0" shapeId="0">
+    <comment ref="A78" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -223,7 +224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -766,11 +767,15 @@
     <t>编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>安全地图ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -964,9 +969,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2" xfId="1"/>
-    <cellStyle name="常规 2 3" xfId="3"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="常规 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,7 +987,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1057,6 +1062,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1092,6 +1114,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1267,14 +1306,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1282,7 +1321,7 @@
     <col min="1" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
         <v>158</v>
       </c>
@@ -1295,8 +1334,11 @@
       <c r="D1" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="11" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>1</v>
       </c>
@@ -1309,41 +1351,44 @@
       <c r="D2" s="14">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="11">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12"/>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D8" s="15"/>
     </row>
-    <row r="9" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D9" s="15"/>
     </row>
-    <row r="10" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="15"/>
     </row>
   </sheetData>
@@ -1354,7 +1399,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -50915,7 +50960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
